--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
@@ -31,7 +31,7 @@
     <t>铸铁在坚雷的邀请下与泡泡进行对抗练习，结果泡泡逃跑了。在向坚雷汇报这件事时，她突然发现，自己应有更重要的事要做。</t>
   </si>
   <si>
-    <t xml:space="preserve">铸铁在坚雷的邀请下与泡泡进行对抗练习，结果泡泡逃跑了。在向坚雷汇报这件事时，她突然发现，自己应有更重要的事要做。
+    <t xml:space="preserve">ジュナーからバブルの訓練を任されたシデロカだったが、彼女に逃げられてしまう。その不手際を報告する中、彼女はもっと大事な使命があることに気が付いた。
 </t>
   </si>
   <si>
